--- a/Sites/GK RMS Asset and Scheduling Licenses.xlsx
+++ b/Sites/GK RMS Asset and Scheduling Licenses.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Global Knowledge AMX Licenses</t>
   </si>
@@ -81,9 +81,6 @@
     <t>691641-10-G5-23000-1-FG3002-19</t>
   </si>
   <si>
-    <t>691641-10-G5-21000-1-FG30002-19</t>
-  </si>
-  <si>
     <t>2511800F70DABCDAF6CA8D7D4A44301D</t>
   </si>
   <si>
@@ -208,13 +205,28 @@
   </si>
   <si>
     <t>Asset</t>
+  </si>
+  <si>
+    <t>734948-10-G5-25000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>691641-10-G5-21000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>734948-10-G5-26000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>734948-10-G5-30000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>734948-10-G5-31000-1-FG3002-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +384,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -407,7 +418,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,25 +593,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -609,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,315 +630,363 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
+      <c r="C42" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -938,24 +996,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sites/GK RMS Asset and Scheduling Licenses.xlsx
+++ b/Sites/GK RMS Asset and Scheduling Licenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="9030" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>Global Knowledge AMX Licenses</t>
   </si>
@@ -207,19 +207,31 @@
     <t>Asset</t>
   </si>
   <si>
-    <t>734948-10-G5-25000-1-FG3002-19</t>
-  </si>
-  <si>
     <t>691641-10-G5-21000-1-FG3002-19</t>
   </si>
   <si>
-    <t>734948-10-G5-26000-1-FG3002-19</t>
-  </si>
-  <si>
-    <t>734948-10-G5-30000-1-FG3002-19</t>
-  </si>
-  <si>
-    <t>734948-10-G5-31000-1-FG3002-19</t>
+    <t>734948-10-G5-28000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>5936901E5E7CE025531461BCC0842AFE</t>
+  </si>
+  <si>
+    <t>734948-10-G5-29000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>734948-10-G5-34000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>734948-10-G5-35000-1-FG3002-19</t>
+  </si>
+  <si>
+    <t>B00EE40842EFC08065CB2C989F281BE4</t>
+  </si>
+  <si>
+    <t>E522D323BFB9C50AB1A7698A9096C22D</t>
+  </si>
+  <si>
+    <t>0D66BD6CBE3C7A44F61751BB421B9676</t>
   </si>
 </sst>
 </file>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,7 +809,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -810,37 +822,45 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
